--- a/data/excel_files/FormattedJan2023.xlsx
+++ b/data/excel_files/FormattedJan2023.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -58,18 +58,6 @@
   </si>
   <si>
     <t>Acad</t>
-  </si>
-  <si>
-    <t>Coupon 15</t>
-  </si>
-  <si>
-    <t>Coupon 20</t>
-  </si>
-  <si>
-    <t>Coupon 25</t>
-  </si>
-  <si>
-    <t>Coupon 30</t>
   </si>
   <si>
     <t>Exam</t>
@@ -370,7 +358,7 @@
   <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J120" sqref="J120"/>
+      <selection activeCell="L1" sqref="I1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -398,20 +386,10 @@
         <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="I1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
